--- a/Data/asm.xlsx
+++ b/Data/asm.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Priya_Gold_ASM_Tracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BC532-1CA4-413A-8CE0-B5812747C5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C1D168-CC8A-41D8-8336-947B99121B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -123,6 +126,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -477,9 +481,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -499,7 +506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +517,7 @@
         <v>5082</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -521,7 +528,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -532,7 +539,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -543,7 +550,7 @@
         <v>7136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -554,7 +561,7 @@
         <v>7757</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -565,7 +572,7 @@
         <v>5808</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -576,7 +583,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -587,7 +594,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -598,7 +605,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -609,7 +616,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -620,7 +627,7 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -639,7 +646,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>8058</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -650,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>4670</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -661,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>1750</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -672,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>2288</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -683,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>2233</v>
+        <v>9843</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -694,10 +701,17 @@
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>6988</v>
+        <v>8205</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Rajasthan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/asm.xlsx
+++ b/Data/asm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Priya_Gold_ASM_Tracker\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C1D168-CC8A-41D8-8336-947B99121B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F8627-645D-42FB-8D09-7C15BB184619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,12 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -506,7 +504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -517,7 +515,7 @@
         <v>5082</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -528,7 +526,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -539,7 +537,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +548,7 @@
         <v>7136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -561,7 +559,7 @@
         <v>7757</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -572,7 +570,7 @@
         <v>5808</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -583,7 +581,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -594,7 +592,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -605,7 +603,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -616,7 +614,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -627,7 +625,7 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -705,13 +703,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Rajasthan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>